--- a/world_by_stillnum.xlsx
+++ b/world_by_stillnum.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Korea</t>
         </is>
       </c>
       <c r="D3" t="n">

--- a/world_by_stillnum.xlsx
+++ b/world_by_stillnum.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:P136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -384,27 +384,62 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>susNum</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>deathNum</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>cureNum</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>econNum</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>conNum</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>susNum</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>deathNum</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>cureNum</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>conadd</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>susadd</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cureadd</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>deathadd</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>is_show_entrance</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>is_show_map</t>
         </is>
       </c>
     </row>
@@ -414,32 +449,63 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>中国</t>
+          <t>意大利</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>37242</v>
+        <v>17750</v>
       </c>
       <c r="E2" t="n">
-        <v>79394</v>
+        <v>21157</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1418</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2838</v>
+        <v>1441</v>
       </c>
       <c r="H2" t="n">
-        <v>39314</v>
+        <v>1966</v>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>21157</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>3497</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -447,36 +513,43 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>韩国</t>
+          <t>中国</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Korea</t>
+          <t>China</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3105</v>
+        <v>10820</v>
       </c>
       <c r="E3" t="n">
-        <v>3150</v>
+        <v>81048</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>113</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>17</v>
+        <v>3204</v>
       </c>
       <c r="H3" t="n">
-        <v>28</v>
+        <v>67024</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>813</t>
-        </is>
-      </c>
+          <t>10820</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -484,19 +557,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>意大利</t>
+          <t>伊朗</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>930</v>
+        <v>7779</v>
       </c>
       <c r="E4" t="n">
-        <v>997</v>
+        <v>12729</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -504,15 +577,42 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>21</v>
+        <v>611</v>
       </c>
       <c r="H4" t="n">
-        <v>46</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>340</t>
-        </is>
+        <v>4339</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>12729</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -521,19 +621,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>日本</t>
+          <t>韩国</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>892</v>
+        <v>7253</v>
       </c>
       <c r="E5" t="n">
-        <v>946</v>
+        <v>8162</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -541,15 +641,42 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="H5" t="n">
-        <v>43</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+        <v>834</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>8162</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -558,19 +685,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>伊朗</t>
+          <t>西班牙</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>427</v>
+        <v>5627</v>
       </c>
       <c r="E6" t="n">
-        <v>593</v>
+        <v>6393</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -578,15 +705,42 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="H6" t="n">
-        <v>123</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>205</t>
-        </is>
+        <v>571</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>6393</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -595,19 +749,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>62</v>
+        <v>4530</v>
       </c>
       <c r="E7" t="n">
-        <v>63</v>
+        <v>4585</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -615,15 +769,42 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>46</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>4585</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -632,35 +813,62 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>法国</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>52</v>
+        <v>4373</v>
       </c>
       <c r="E8" t="n">
-        <v>66</v>
+        <v>4500</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="H8" t="n">
-        <v>14</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+        <v>36</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>4500</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>839</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -669,19 +877,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>科威特</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>45</v>
+        <v>2754</v>
       </c>
       <c r="E9" t="n">
-        <v>45</v>
+        <v>2826</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -689,15 +897,42 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2826</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -706,19 +941,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>法国</t>
+          <t>瑞士</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>43</v>
+        <v>1175</v>
       </c>
       <c r="E10" t="n">
-        <v>57</v>
+        <v>1189</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -726,15 +961,42 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H10" t="n">
-        <v>12</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1189</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -743,19 +1005,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>新加坡</t>
+          <t>英国</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Britain</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>40</v>
+        <v>1101</v>
       </c>
       <c r="E11" t="n">
-        <v>93</v>
+        <v>1140</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -763,15 +1025,42 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H11" t="n">
-        <v>53</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>18</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1140</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -780,19 +1069,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>西班牙</t>
+          <t>挪威</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>39</v>
+        <v>1043</v>
       </c>
       <c r="E12" t="n">
-        <v>41</v>
+        <v>1046</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -800,15 +1089,42 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1046</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -817,19 +1133,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>巴林</t>
+          <t>瑞典</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>38</v>
+        <v>959</v>
       </c>
       <c r="E13" t="n">
-        <v>38</v>
+        <v>961</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -837,15 +1153,42 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>961</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -854,19 +1197,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>澳大利亚</t>
+          <t>荷兰</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Holand</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>947</v>
       </c>
       <c r="E14" t="n">
-        <v>25</v>
+        <v>959</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -874,15 +1217,42 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -891,19 +1261,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>阿联酋</t>
+          <t>丹麦</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>827</v>
       </c>
       <c r="E15" t="n">
-        <v>21</v>
+        <v>827</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -914,12 +1284,39 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>827</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -928,19 +1325,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>瑞士</t>
+          <t>比利时</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>684</v>
       </c>
       <c r="E16" t="n">
-        <v>15</v>
+        <v>689</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -948,15 +1345,42 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -965,19 +1389,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>泰国</t>
+          <t>奥地利</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>14</v>
+        <v>652</v>
       </c>
       <c r="E17" t="n">
-        <v>42</v>
+        <v>655</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -985,15 +1409,42 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>28</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1002,19 +1453,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>瑞典</t>
+          <t>日本</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>12</v>
+        <v>630</v>
       </c>
       <c r="E18" t="n">
-        <v>12</v>
+        <v>787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1022,15 +1473,42 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+        <v>135</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>787</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1039,35 +1517,58 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>加拿大</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
+          <t>钻石公主号</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>509</v>
       </c>
       <c r="E19" t="n">
-        <v>16</v>
+        <v>697</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+        <v>181</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>697</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1076,35 +1577,62 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>英国</t>
+          <t>卡塔尔</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Britain</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>12</v>
+        <v>334</v>
       </c>
       <c r="E20" t="n">
-        <v>20</v>
+        <v>338</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1113,19 +1641,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>马来西亚</t>
+          <t>加拿大</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>245</v>
       </c>
       <c r="E21" t="n">
-        <v>25</v>
+        <v>253</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1133,15 +1661,42 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>15</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1150,19 +1705,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>以色列</t>
+          <t>希腊</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1170,15 +1725,42 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1187,19 +1769,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>伊拉克</t>
+          <t>芬兰</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>8</v>
+        <v>223</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>224</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1210,12 +1792,39 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1224,19 +1833,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>挪威</t>
+          <t>澳大利亚</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>236</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1244,15 +1853,42 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1261,19 +1897,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>克罗地亚</t>
+          <t>马来西亚</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>203</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>238</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1284,12 +1920,39 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>35</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1298,19 +1961,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>奥地利</t>
+          <t>以色列</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>194</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>195</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1321,12 +1984,39 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1335,19 +2025,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>阿曼</t>
+          <t>捷克</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Czech</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>189</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>189</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1358,12 +2048,39 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1372,19 +2089,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>阿富汗</t>
+          <t>斯洛文尼亚</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1397,10 +2114,37 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1409,19 +2153,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>希腊</t>
+          <t>冰岛</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1434,10 +2178,37 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1446,19 +2217,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>黎巴嫩</t>
+          <t>巴林</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>151</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1469,12 +2240,39 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>60</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1483,19 +2281,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>丹麦</t>
+          <t>巴西</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>151</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>151</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1508,10 +2306,37 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1520,19 +2345,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>罗马尼亚</t>
+          <t>爱尔兰</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1540,15 +2365,42 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1557,19 +2409,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>墨西哥</t>
+          <t>新加坡</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>212</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1580,12 +2432,39 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+        <v>97</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1594,19 +2473,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>格鲁吉亚</t>
+          <t>葡萄牙</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1619,10 +2498,37 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1631,19 +2537,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>芬兰</t>
+          <t>爱沙尼亚</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1654,12 +2560,39 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1668,19 +2601,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>荷兰</t>
+          <t>沙特阿拉伯</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Holand</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="E36" t="n">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1693,10 +2626,37 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1705,19 +2665,19 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>巴基斯坦</t>
+          <t>波兰</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1725,15 +2685,42 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1742,19 +2729,19 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>北马其顿</t>
+          <t>菲律宾</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1762,15 +2749,42 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1779,19 +2793,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>爱沙尼亚</t>
+          <t>罗马尼亚</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1802,12 +2816,39 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1816,19 +2857,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>尼日利亚</t>
+          <t>科威特</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1839,12 +2880,39 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1853,19 +2921,19 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>立陶宛</t>
+          <t>印度尼西亚</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1873,15 +2941,42 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1890,19 +2985,19 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>新西兰</t>
+          <t>黎巴嫩</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1910,15 +3005,42 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1927,19 +3049,19 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>白俄罗斯</t>
+          <t>埃及</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1947,15 +3069,42 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>21</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1964,19 +3113,19 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>圣马力诺</t>
+          <t>印度</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>San Marino</t>
+          <t>India</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1984,15 +3133,42 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2001,19 +3177,19 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>斯里兰卡</t>
+          <t>伊拉克</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2021,15 +3197,42 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>26</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O45" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2038,19 +3241,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>阿尔及利亚</t>
+          <t>圣马力诺</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>San Marino</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2058,15 +3261,42 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O46" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2075,19 +3305,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>尼泊尔</t>
+          <t>阿联酋</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2098,12 +3328,39 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>23</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O47" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2112,19 +3369,19 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>卡塔尔</t>
+          <t>智利</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2137,10 +3394,37 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O48" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2149,19 +3433,19 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>菲律宾</t>
+          <t>俄罗斯</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2169,15 +3453,42 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O49" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2186,19 +3497,19 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>冰岛</t>
+          <t>卢森堡</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Luxemburg</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2206,15 +3517,42 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2223,19 +3561,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>阿塞拜疆</t>
+          <t>塞尔维亚</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2248,10 +3586,37 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2260,19 +3625,19 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>巴西</t>
+          <t>泰国</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2280,15 +3645,42 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>35</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O52" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2297,19 +3689,19 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>摩纳哥</t>
+          <t>斯洛伐克</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2322,10 +3714,37 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O53" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2334,19 +3753,19 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>埃及</t>
+          <t>阿根廷</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2354,15 +3773,42 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O54" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2371,19 +3817,19 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>柬埔寨</t>
+          <t>巴拿马</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2391,15 +3837,42 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O55" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2408,23 +3881,23 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>比利时</t>
+          <t>墨西哥</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>155</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -2433,10 +3906,37 @@
       <c r="H56" t="n">
         <v>1</v>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O56" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2445,19 +3945,19 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>俄罗斯</t>
+          <t>文莱</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Brunei Darussalam</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2468,12 +3968,39 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O57" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2482,19 +4009,19 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>印度</t>
+          <t>越南</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E58" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2505,12 +4032,39 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>16</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O58" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2519,35 +4073,4990 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>越南</t>
+          <t>阿尔巴尼亚</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E59" t="n">
+        <v>38</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O59" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>克罗地亚</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>37</v>
+      </c>
+      <c r="E60" t="n">
+        <v>37</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>南非</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>37</v>
+      </c>
+      <c r="E61" t="n">
+        <v>38</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O61" t="n">
+        <v>1</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>巴勒斯坦</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Palestine</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>35</v>
+      </c>
+      <c r="E62" t="n">
+        <v>35</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>保加利亚</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>34</v>
+      </c>
+      <c r="E63" t="n">
+        <v>36</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O63" t="n">
+        <v>1</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>格鲁吉亚</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>30</v>
+      </c>
+      <c r="E64" t="n">
+        <v>30</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O64" t="n">
+        <v>1</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>匈牙利</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>29</v>
+      </c>
+      <c r="E65" t="n">
+        <v>30</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O65" t="n">
+        <v>1</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>巴基斯坦</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>29</v>
+      </c>
+      <c r="E66" t="n">
+        <v>31</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O66" t="n">
+        <v>1</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>秘鲁</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>28</v>
+      </c>
+      <c r="E67" t="n">
+        <v>28</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O67" t="n">
+        <v>1</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>拉脱维亚</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Latvia</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>26</v>
+      </c>
+      <c r="E68" t="n">
+        <v>26</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O68" t="n">
+        <v>1</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>白俄罗斯</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Belarus</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>24</v>
+      </c>
+      <c r="E69" t="n">
+        <v>27</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O69" t="n">
+        <v>1</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>阿尔及利亚</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>24</v>
+      </c>
+      <c r="E70" t="n">
+        <v>37</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>3</v>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>厄瓜多尔</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>22</v>
+      </c>
+      <c r="E71" t="n">
+        <v>23</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O71" t="n">
+        <v>1</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>哥伦比亚</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>22</v>
+      </c>
+      <c r="E72" t="n">
+        <v>22</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O72" t="n">
+        <v>1</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>塞浦路斯</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Cyprus</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>21</v>
+      </c>
+      <c r="E73" t="n">
+        <v>21</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O73" t="n">
+        <v>1</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>波黑</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Bosnia</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>21</v>
+      </c>
+      <c r="E74" t="n">
+        <v>21</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>塞内加尔</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>20</v>
+      </c>
+      <c r="E75" t="n">
+        <v>22</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O75" t="n">
+        <v>1</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>亚美尼亚</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>20</v>
+      </c>
+      <c r="E76" t="n">
+        <v>20</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O76" t="n">
+        <v>1</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>阿曼</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Oman</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>18</v>
+      </c>
+      <c r="E77" t="n">
+        <v>20</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O77" t="n">
+        <v>1</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>马耳他</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Malta</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>18</v>
+      </c>
+      <c r="E78" t="n">
+        <v>18</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O78" t="n">
+        <v>1</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>突尼斯</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Tunis</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
         <v>16</v>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
+      <c r="E79" t="n">
         <v>16</v>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O79" t="n">
+        <v>1</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>摩洛哥</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>14</v>
+      </c>
+      <c r="E80" t="n">
+        <v>16</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>2</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O80" t="n">
+        <v>1</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>哥斯达黎加</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>13</v>
+      </c>
+      <c r="E81" t="n">
+        <v>13</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O81" t="n">
+        <v>1</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>北马其顿</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>13</v>
+      </c>
+      <c r="E82" t="n">
+        <v>13</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>摩尔多瓦</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Moldova</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>12</v>
+      </c>
+      <c r="E83" t="n">
+        <v>12</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O83" t="n">
+        <v>1</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>阿塞拜疆</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Azerbaijan</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>12</v>
+      </c>
+      <c r="E84" t="n">
+        <v>19</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O84" t="n">
+        <v>1</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>委内瑞拉</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Venezuela</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>10</v>
+      </c>
+      <c r="E85" t="n">
+        <v>10</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>玻利维亚</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>10</v>
+      </c>
+      <c r="E86" t="n">
+        <v>10</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O86" t="n">
+        <v>1</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>马尔代夫</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Maldives</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>10</v>
+      </c>
+      <c r="E87" t="n">
+        <v>10</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O87" t="n">
+        <v>1</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>阿富汗</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Afghanistan</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>10</v>
+      </c>
+      <c r="E88" t="n">
+        <v>10</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O88" t="n">
+        <v>1</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>斯里兰卡</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Sri Lanka</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>10</v>
+      </c>
+      <c r="E89" t="n">
+        <v>11</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O89" t="n">
+        <v>1</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>立陶宛</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>8</v>
+      </c>
+      <c r="E90" t="n">
+        <v>8</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O90" t="n">
+        <v>1</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>新西兰</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>8</v>
+      </c>
+      <c r="E91" t="n">
+        <v>8</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O91" t="n">
+        <v>1</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>哈萨克斯坦</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Kazakhstan</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>6</v>
+      </c>
+      <c r="E92" t="n">
+        <v>6</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>柬埔寨</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Cambodia</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>6</v>
+      </c>
+      <c r="E93" t="n">
+        <v>7</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O93" t="n">
+        <v>1</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>乌拉圭</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>6</v>
+      </c>
+      <c r="E94" t="n">
+        <v>6</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>土耳其</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>6</v>
+      </c>
+      <c r="E95" t="n">
+        <v>6</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O95" t="n">
+        <v>1</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>巴拉圭</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>6</v>
+      </c>
+      <c r="E96" t="n">
+        <v>6</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O96" t="n">
+        <v>1</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>多米尼加</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Dominican</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>5</v>
+      </c>
+      <c r="E97" t="n">
+        <v>5</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O97" t="n">
+        <v>1</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>古巴</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>4</v>
+      </c>
+      <c r="E98" t="n">
+        <v>4</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>乌克兰</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>3</v>
+      </c>
+      <c r="E99" t="n">
+        <v>3</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O99" t="n">
+        <v>1</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>波多黎各</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Puerto Rico</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>3</v>
+      </c>
+      <c r="E100" t="n">
+        <v>3</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>摩纳哥</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>3</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O101" t="n">
+        <v>1</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>喀麦隆</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>3</v>
+      </c>
+      <c r="E102" t="n">
+        <v>3</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O102" t="n">
+        <v>1</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>孟加拉国</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Bengal</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>3</v>
+      </c>
+      <c r="E103" t="n">
+        <v>3</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O103" t="n">
+        <v>1</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>尼日利亚</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>2</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O104" t="n">
+        <v>1</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>刚果民主共和国</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Dem. Rep. Congo</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>2</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O105" t="n">
+        <v>1</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>加纳</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>2</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>洪都拉斯</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Honduras</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>2</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O107" t="n">
+        <v>1</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>塞舌尔</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Seychelles</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>2</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O108" t="n">
+        <v>1</v>
+      </c>
+      <c r="P108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>布基纳法索</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Burkina Faso</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>2</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O109" t="n">
+        <v>1</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>几内亚</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Guinea</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>1</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>安提瓜和巴布达</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Antiguaand Barbuda</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>1</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>刚果共和国</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Rep. Congo</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O112" t="n">
+        <v>1</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>苏里南</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Suriname</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>1</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>毛里塔尼亚</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Mauritania</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>1</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>赤道几内亚</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Equatorial Guinea</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>1</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>危地马拉</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Guatemala</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>1</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>斯威士兰</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Swaziland</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>1</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>卢旺达</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>1</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>纳米比亚</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Namibia</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>1</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>安道尔</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Andorra</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O120" t="n">
+        <v>1</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>埃塞俄比亚</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Ethiopia</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>肯尼亚</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Kenya</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>特立尼达和多巴哥</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Trinidadand Tobago</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>1</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>加蓬</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Gabon</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>牙买加</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>1</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O125" t="n">
+        <v>1</v>
+      </c>
+      <c r="P125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>蒙古国</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Mongolia</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O126" t="n">
+        <v>1</v>
+      </c>
+      <c r="P126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>列支敦士登公国</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Principality of Liechtenstein</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>1</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O127" t="n">
+        <v>1</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>多哥</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Togo</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>1</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O128" t="n">
+        <v>1</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>科特迪瓦</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Coted Ivoire</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>1</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>梵蒂冈</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Vatican</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>1</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>不丹</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Bhutan</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>1</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>尼泊尔</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O132" t="n">
+        <v>1</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>约旦</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>1</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O133" t="n">
+        <v>1</v>
+      </c>
+      <c r="P133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>中非共和国</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Central African Republic</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>1</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O134" t="n">
+        <v>1</v>
+      </c>
+      <c r="P134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>苏丹</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Sudan</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>1</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>圭亚那</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Guyana</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P136" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
